--- a/kickstarter-countries.xlsx
+++ b/kickstarter-countries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinluttrell/Desktop/python/BootCamp/Project2_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinluttrell/Library/Mobile Documents/com~apple~CloudDocs/Desktop/python/BootCamp/Project2_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A15A53F-007E-0E44-A4C3-E0BF8E7AEFFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47552DAB-AD98-7146-A119-654102A57DA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13700" xr2:uid="{4BF1D1D8-89E6-4842-8989-F3E8DE2167B4}"/>
+    <workbookView xWindow="880" yWindow="1440" windowWidth="24640" windowHeight="13700" xr2:uid="{4BF1D1D8-89E6-4842-8989-F3E8DE2167B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>UK</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Canada</t>
   </si>
@@ -103,6 +100,141 @@
   </si>
   <si>
     <t>KS</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>JP</t>
   </si>
 </sst>
 </file>
@@ -457,127 +589,262 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>20</v>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
